--- a/Use case exercises/Use Case Exercise 4/Researcher Data Request Prompts.xlsx
+++ b/Use case exercises/Use Case Exercise 4/Researcher Data Request Prompts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitre.sharepoint.com/sites/DARPAASKESupport/Shared Documents/General/ASKEM/ARPA-H BDF Collaboration/temporary/Use Case Package for BDF - Dec 2024/Use Case 4-zip-when-done/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkorves\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{FF9B1EF6-5741-46EE-89AB-FE730EC83665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46BA8D94-E91F-8340-92D2-31D8AFC32DD6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CD1B05-EC4A-43CF-B574-A6C72BF90739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{FAD60E29-BE5E-48A5-A7D8-4F852587E0D1}"/>
+    <workbookView xWindow="40" yWindow="670" windowWidth="19160" windowHeight="9530" xr2:uid="{FAD60E29-BE5E-48A5-A7D8-4F852587E0D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Res. Needs &amp; Req Prompts" sheetId="4" r:id="rId1"/>
@@ -542,49 +542,32 @@
     <t>I decided to go with just "Primary tumor" and not include other options such as metastasis, blood derived…, etc. Other choices, expect for Normal tissue, may be acceptable.  I chose "Qualified" to exclude disqualified samples. I'm limiting the query to proteome (e.g., excluding measures of modified forms) and going with the processed data only, so I chose "Protein Assembly". Finally, the intersection of cases from PDC results and GDC results would need to be identified.</t>
   </si>
   <si>
-    <t xml:space="preserve">© 2024 The MITRE Corporation. ALL RIGHTS RESERVED. </t>
+    <t>Germline ALK/PHOX2B mutations account for the majority of familial Neuroblastoma (NB). Additional NB predisposition loci have been suggested by GWAS in sporadic NB. However, these variants still account a small portion of NB susceptibility. Aim of this project is to identify undetected low (MAF 0.01-0.05), rare (MAF&lt;0.01), and very rare (MAF=0.00001) germline DNA variations in cancer predisposition genes (CPGs) associated with NB risk. We request access to TARGET-NB data to analyze whole genome and exome sequencing (WGS, WES) of NB cases and 157 NB RNAseq. We will identify pathogenetic risk of coding and non-coding variants (CV and NCV) in CPGs.  CVs will be given a deleteriousness score calculated as the proportion of prediction tools calling a particular variant as damaging or probably damaging. NCVs will be selected by their regulatory potential inferred by DNase I hypersensitivity mapping and chromatin immunoprecipitation sequencing (ChIP-seq) of H3K4me3, H3K4me1 and of H3K27ac in NB cells to identify variants in active promoters or enhancers regions; the top NCVs located in regulatory elements will be analyzed in NB RNAseq and matched variation data obtained by WGS of germline DNA. These data will be used to perform allele specific expression analysis of NCV (in LD with coding variant). Given the promising response of DNA repair mutated genes to PARP inhibitors, we will explore if CPGs carrier variations render cells susceptible to homologous recombination deficiency in NB and if they become eligible for exploring the efficacy of PARP inhibitors. The results of this project will allow us to identify potential genetic pathways with a great implication in NB pathogenesis and in opening up the way to develop attractive targets for drug design. We plan to use the TARGET NB data for neuroblastoma research only; these data will be used with all necessary precaution and we will strictly adhere to all instructions/guidelines issued by TARGET database. All results will be made freely available to the scientific community.</t>
+  </si>
+  <si>
+    <t>This is part of the Use Case Exercise 4 materials</t>
+  </si>
+  <si>
+    <t>Distribution Statement A.  Approved for public release: distribution is unlimited</t>
+  </si>
+  <si>
+    <t>MITRE Public Release Case Number 24-2089</t>
   </si>
   <si>
     <r>
-      <t>Public Release Number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(24-2082).</t>
+      <t>ã</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> 2025 The MITRE Corporation.</t>
     </r>
-  </si>
-  <si>
-    <t>Germline ALK/PHOX2B mutations account for the majority of familial Neuroblastoma (NB). Additional NB predisposition loci have been suggested by GWAS in sporadic NB. However, these variants still account a small portion of NB susceptibility. Aim of this project is to identify undetected low (MAF 0.01-0.05), rare (MAF&lt;0.01), and very rare (MAF=0.00001) germline DNA variations in cancer predisposition genes (CPGs) associated with NB risk. We request access to TARGET-NB data to analyze whole genome and exome sequencing (WGS, WES) of NB cases and 157 NB RNAseq. We will identify pathogenetic risk of coding and non-coding variants (CV and NCV) in CPGs.  CVs will be given a deleteriousness score calculated as the proportion of prediction tools calling a particular variant as damaging or probably damaging. NCVs will be selected by their regulatory potential inferred by DNase I hypersensitivity mapping and chromatin immunoprecipitation sequencing (ChIP-seq) of H3K4me3, H3K4me1 and of H3K27ac in NB cells to identify variants in active promoters or enhancers regions; the top NCVs located in regulatory elements will be analyzed in NB RNAseq and matched variation data obtained by WGS of germline DNA. These data will be used to perform allele specific expression analysis of NCV (in LD with coding variant). Given the promising response of DNA repair mutated genes to PARP inhibitors, we will explore if CPGs carrier variations render cells susceptible to homologous recombination deficiency in NB and if they become eligible for exploring the efficacy of PARP inhibitors. The results of this project will allow us to identify potential genetic pathways with a great implication in NB pathogenesis and in opening up the way to develop attractive targets for drug design. We plan to use the TARGET NB data for neuroblastoma research only; these data will be used with all necessary precaution and we will strictly adhere to all instructions/guidelines issued by TARGET database. All results will be made freely available to the scientific community.</t>
-  </si>
-  <si>
-    <t>This is part of the Use Case Exercise 4 materials</t>
-  </si>
-  <si>
-    <t>For Limited External Release Only for DARPA ASKEM and ARPA-H BDF program use</t>
   </si>
 </sst>
 </file>
@@ -622,23 +605,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -753,7 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -887,16 +874,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -924,6 +904,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1271,16 +1253,16 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="36.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="36.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
-    <col min="3" max="3" width="53.5" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" customWidth="1"/>
+    <col min="3" max="3" width="53.453125" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
@@ -1296,7 +1278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1313,7 +1295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1330,7 +1312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1347,7 +1329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1364,7 +1346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1381,7 +1363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -1398,7 +1380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -1415,7 +1397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -1451,16 +1433,16 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="65.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.453125" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1477,7 +1459,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1494,7 +1476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1511,7 +1493,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1528,7 +1510,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="208" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1545,7 +1527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1585,35 +1567,35 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="79.1640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="71.5" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="18" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="84.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="79.1796875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="71.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="10" max="10" width="84.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36"/>
       <c r="B1" s="37"/>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-    </row>
-    <row r="2" spans="1:10" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:10" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
@@ -1645,7 +1627,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>6</v>
       </c>
@@ -1653,7 +1635,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>53</v>
@@ -1677,7 +1659,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>7</v>
       </c>
@@ -1709,7 +1691,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>8</v>
       </c>
@@ -1760,48 +1742,48 @@
       <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.83203125" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="27.5" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" customWidth="1"/>
+    <col min="3" max="3" width="36.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" customWidth="1"/>
+    <col min="7" max="7" width="25.453125" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:16" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="50" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="54" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="57"/>
-    </row>
-    <row r="2" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
+    </row>
+    <row r="2" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1833,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="161.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -1901,7 +1883,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A4" s="23">
         <v>2</v>
       </c>
@@ -1951,7 +1933,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="365" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="377" x14ac:dyDescent="0.35">
       <c r="A5" s="23">
         <v>3</v>
       </c>
@@ -2001,7 +1983,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -2051,7 +2033,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A7" s="23">
         <v>5</v>
       </c>
@@ -2101,7 +2083,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A8" s="23">
         <v>6</v>
       </c>
@@ -2151,7 +2133,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -2201,7 +2183,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A10" s="23">
         <v>8</v>
       </c>
@@ -2267,32 +2249,32 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="101.1640625" customWidth="1"/>
+    <col min="1" max="1" width="101.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="55" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="56" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2301,14 +2283,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aff8eeb6-53bf-44bf-a224-fac977cd228b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2552,28 +2532,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aff8eeb6-53bf-44bf-a224-fac977cd228b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FC22D63-41A3-4F5A-8001-F2FEDDF98708}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25FF2F29-68B1-422D-B3E3-B41B6DE8420E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="f3e578be-7961-41e8-91c9-b742ecb60a74"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aff8eeb6-53bf-44bf-a224-fac977cd228b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2599,9 +2571,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25FF2F29-68B1-422D-B3E3-B41B6DE8420E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FC22D63-41A3-4F5A-8001-F2FEDDF98708}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="f3e578be-7961-41e8-91c9-b742ecb60a74"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aff8eeb6-53bf-44bf-a224-fac977cd228b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>